--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_228.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_228.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,670 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.7, 5.28)]</t>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[('0:00:13.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:02.360000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[('0:00:58.400000', '0:01:05.040000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
+          <t>[('0:00:11.940000', '0:00:17.600000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:37.720000', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.620000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:00:23.020000', '0:00:32.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:44.200000', '0:00:54.160000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:37.760000', '0:01:49.380000'), ('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'C#:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(49.48, 52.18)]</t>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1165,9 @@
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
